--- a/server/expenses.xlsx
+++ b/server/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Person Name</t>
   </si>
@@ -50,6 +50,15 @@
   </si>
   <si>
     <t>nothing</t>
+  </si>
+  <si>
+    <t>ramu</t>
+  </si>
+  <si>
+    <t>4500</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
   </si>
 </sst>
 </file>
@@ -392,7 +401,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -445,6 +454,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/server/expenses.xlsx
+++ b/server/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Person Name</t>
   </si>
@@ -34,31 +34,58 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>Thrinath</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>2024-07-19</t>
+    <t>GUID</t>
+  </si>
+  <si>
+    <t>Mallikarjuna Bava</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>2024-10-01</t>
+  </si>
+  <si>
+    <t>2024-10-17</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>ramu</t>
-  </si>
-  <si>
-    <t>4500</t>
-  </si>
-  <si>
-    <t>2024-10-08</t>
+    <t>56386</t>
+  </si>
+  <si>
+    <t>Eswar ReddyBava</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>2024-10-31</t>
+  </si>
+  <si>
+    <t>14770</t>
+  </si>
+  <si>
+    <t>surendra</t>
+  </si>
+  <si>
+    <t>2024-09-30</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>11957</t>
   </si>
 </sst>
 </file>
@@ -401,7 +428,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -411,10 +438,11 @@
     <col min="2" max="2" width="10.005" customWidth="1"/>
     <col min="3" max="4" width="15.005" customWidth="1"/>
     <col min="5" max="5" width="10.005" customWidth="1"/>
-    <col min="6" max="6" width="30.005" customWidth="1"/>
+    <col min="6" max="6" width="13.576428571428572" customWidth="1"/>
+    <col min="7" max="7" width="30.005" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" ht="18.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,45 +461,77 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
